--- a/biology/Botanique/Lenzite_du_chêne/Lenzite_du_chêne.xlsx
+++ b/biology/Botanique/Lenzite_du_chêne/Lenzite_du_chêne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lenzite_du_ch%C3%AAne</t>
+          <t>Lenzite_du_chêne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Daedalea quercina
 Daedalea quercina, la Dédalée du chêne ou le Polypore du chêne, est une espèce de champignons basidiomycètes de la famille des Fomitopsidaceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lenzite_du_ch%C3%AAne</t>
+          <t>Lenzite_du_chêne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chapeau de 6 à 20 cm, en console semi-circulaire, brun-gris assez pâle, rugueux et zoné vers la marge.
 Lames de couleur ocre clair, espacées, épaisses et ramifiées en labyrinthe (d'où le nom du genre). L'hyménium des dédalées est intermédiaire entre de véritables lames et des pores ; sporée blanchâtre.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lenzite_du_ch%C3%AAne</t>
+          <t>Lenzite_du_chêne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce vient toute l'année sur les troncs des chênes, comme son nom l'indique, mais aussi occasionnellement sur d'autres feuillus : châtaigniers, hêtres, noyers notamment. Il est rare sur les conifères. Son mycélium cause une pourriture brune chez son hôte[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce vient toute l'année sur les troncs des chênes, comme son nom l'indique, mais aussi occasionnellement sur d'autres feuillus : châtaigniers, hêtres, noyers notamment. Il est rare sur les conifères. Son mycélium cause une pourriture brune chez son hôte.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lenzite_du_ch%C3%AAne</t>
+          <t>Lenzite_du_chêne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +592,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Coriace et de ce fait immangeable, la dédalée du chêne reste un champignon comestible si on l'utilise pour parfumer un potage.
-Il contient également du quercinol, aux propriétés anti-inflammatoires[2].
+Il contient également du quercinol, aux propriétés anti-inflammatoires.
 </t>
         </is>
       </c>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lenzite_du_ch%C3%AAne</t>
+          <t>Lenzite_du_chêne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,9 +626,11 @@
           <t>Espèces proches et confusions possibles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dédalée du chêne se reconnait aisément à son habitat, à son profil en console aplatie et surtout à son hyménium labyrinthique qui évoque certains madrépores[3]. C'est une particularité que l'on retrouve toutefois chez d'autres Polyporales, tels les Lenzites ou les Daedaleopsis , et aussi chez les Gloeophyllales.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dédalée du chêne se reconnait aisément à son habitat, à son profil en console aplatie et surtout à son hyménium labyrinthique qui évoque certains madrépores. C'est une particularité que l'on retrouve toutefois chez d'autres Polyporales, tels les Lenzites ou les Daedaleopsis , et aussi chez les Gloeophyllales.
 </t>
         </is>
       </c>
